--- a/AIPublisher/mysite/base_data.xlsx
+++ b/AIPublisher/mysite/base_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\venvs\projects\Project_homework\AIPublisher\mysite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\venvs\projects\temp\Project_homework\AIPublisher\mysite\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="697">
   <si>
     <t>Relation B</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2507,9 +2507,6 @@
     <t>Asset 018.png</t>
   </si>
   <si>
-    <t>Asset 019.png</t>
-  </si>
-  <si>
     <t>Asset 020.png</t>
   </si>
   <si>
@@ -2517,6 +2514,10 @@
   </si>
   <si>
     <t>Asset 022.png</t>
+  </si>
+  <si>
+    <t>Asset 019.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10110,7 +10111,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10275,7 +10276,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -10283,7 +10284,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -10291,7 +10292,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -10299,11 +10300,12 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>